--- a/biology/Biologie cellulaire et moléculaire/V._Narry_Kim/V._Narry_Kim.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/V._Narry_Kim/V._Narry_Kim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">V. Narry Kim, née en 1969, est une biochimiste et microbiologiste sud-coréenne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">V. Narry Kim, née en 1969, est une biochimiste et microbiologiste sud-coréenne.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1988, elle entre à l'Université nationale de Séoul. Elle y obtient un Baccalauréat universitaire ès lettres en microbiologie en 1992 puis une Maîtrise universitaire ès sciences en 1994. Elle rejoint ensuite l'université d'Oxford pour effectuer une thèse en biochimie qu'elle soutient en 1998. Entre 1999 et 2001, elle effectue ses recherches postdoctorales auprès de Gideon Dreyfuss (en) au Howard Hughes Medical Institute et à l'Université de Pennsylvanie. En 2001, elle retourne en Corée du Sud où elle devient chercheuse adjointe au sein de l'Université nationale de Séoul. Elle est directrice du centre de recherches sur l'ARN depuis 2012 à l'Institute for Basic Science (en). Elle est professeure titulaire de l'Université nationale de Séoul depuis 2013. Elle est connue pour ses travaux pionniers sur la biogenèse des Micro-ARN qui ont mené à de nombreux autres travaux sur l'interférence par ARN[2]. Elle est membre du comité de rédaction de plusieurs revues scientifiques dont Molecular Cell, Cell Research, Cell, Genes and Development et The EMBO Journal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, elle entre à l'Université nationale de Séoul. Elle y obtient un Baccalauréat universitaire ès lettres en microbiologie en 1992 puis une Maîtrise universitaire ès sciences en 1994. Elle rejoint ensuite l'université d'Oxford pour effectuer une thèse en biochimie qu'elle soutient en 1998. Entre 1999 et 2001, elle effectue ses recherches postdoctorales auprès de Gideon Dreyfuss (en) au Howard Hughes Medical Institute et à l'Université de Pennsylvanie. En 2001, elle retourne en Corée du Sud où elle devient chercheuse adjointe au sein de l'Université nationale de Séoul. Elle est directrice du centre de recherches sur l'ARN depuis 2012 à l'Institute for Basic Science (en). Elle est professeure titulaire de l'Université nationale de Séoul depuis 2013. Elle est connue pour ses travaux pionniers sur la biogenèse des Micro-ARN qui ont mené à de nombreux autres travaux sur l'interférence par ARN. Elle est membre du comité de rédaction de plusieurs revues scientifiques dont Molecular Cell, Cell Research, Cell, Genes and Development et The EMBO Journal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2008: Prix L'Oréal-Unesco pour les femmes et la science « Pour avoir élucidé plusieurs étapes clés de la formation d’une nouvelle classe de molécules d'ARN régulatrices de gènes »[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2008: Prix L'Oréal-Unesco pour les femmes et la science « Pour avoir élucidé plusieurs étapes clés de la formation d’une nouvelle classe de molécules d'ARN régulatrices de gènes »
 2009: Prix Ho-Am de médecine de la fondation Samsung
 2013: membre de l'Organisation européenne de biologie moléculaire
 2014:
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lee, Yoontae, et al. The nuclear RNase III Drosha initiates microRNA processing. Nature 425.6956 (2003): 415-419.
 Lee, Yoontae, et al. MicroRNA genes are transcribed by RNA polymerase II. The EMBO journal 23.20 (2004): 4051-4060.
